--- a/data/trans_orig/P14C07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C07-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{927C97C0-334D-4272-85C0-3E2FEF738479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7BB8C8B-9EAD-4466-8919-6E23132F525C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2D99D635-BC41-4E1F-984A-3AB79F3D3E00}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3D295510-991E-4F78-935A-AD54179E7FCA}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="104">
   <si>
     <t>Población según el tiempo de diagnóstico del estreñimiento crónico en 2015 (Tasa respuesta: 1,02%)</t>
   </si>
@@ -131,34 +131,34 @@
     <t>52,39%</t>
   </si>
   <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
   </si>
   <si>
     <t>36,99%</t>
   </si>
   <si>
-    <t>79,25%</t>
+    <t>79,55%</t>
   </si>
   <si>
     <t>31,12%</t>
   </si>
   <si>
-    <t>81,94%</t>
+    <t>67,13%</t>
   </si>
   <si>
     <t>19,61%</t>
   </si>
   <si>
-    <t>79,7%</t>
+    <t>81,9%</t>
   </si>
   <si>
     <t>16,5%</t>
   </si>
   <si>
-    <t>66,85%</t>
+    <t>67,78%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -167,31 +167,31 @@
     <t>81,81%</t>
   </si>
   <si>
-    <t>48,91%</t>
+    <t>48,64%</t>
   </si>
   <si>
     <t>75,59%</t>
   </si>
   <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
   </si>
   <si>
     <t>18,19%</t>
   </si>
   <si>
-    <t>51,09%</t>
+    <t>51,36%</t>
   </si>
   <si>
     <t>24,41%</t>
   </si>
   <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -206,58 +206,61 @@
     <t>72,75%</t>
   </si>
   <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
   </si>
   <si>
     <t>83,85%</t>
   </si>
   <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
   </si>
   <si>
     <t>80,68%</t>
   </si>
   <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
   </si>
   <si>
     <t>19,58%</t>
   </si>
   <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
   </si>
   <si>
     <t>16,15%</t>
   </si>
   <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
   </si>
   <si>
     <t>17,13%</t>
   </si>
   <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
     <t>7,67%</t>
   </si>
   <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
+    <t>37,99%</t>
   </si>
   <si>
     <t>6,36%</t>
@@ -266,82 +269,82 @@
     <t>2,19%</t>
   </si>
   <si>
-    <t>10,98%</t>
+    <t>10,6%</t>
   </si>
   <si>
     <t>69,71%</t>
   </si>
   <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
   </si>
   <si>
     <t>75,44%</t>
   </si>
   <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
   </si>
   <si>
     <t>74,24%</t>
   </si>
   <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
   </si>
   <si>
     <t>23,6%</t>
   </si>
   <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
   </si>
   <si>
     <t>21,35%</t>
   </si>
   <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
   </si>
   <si>
     <t>21,82%</t>
   </si>
   <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
   </si>
   <si>
     <t>6,69%</t>
   </si>
   <si>
-    <t>27,67%</t>
+    <t>33,27%</t>
   </si>
   <si>
     <t>3,21%</t>
   </si>
   <si>
-    <t>9,96%</t>
+    <t>11,28%</t>
   </si>
   <si>
     <t>3,94%</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -756,7 +759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F0A6EC-B0EF-4779-913C-3A6D1F630A78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC91001B-1C29-429E-9BA4-CB7B8E380B41}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1988,13 +1991,13 @@
         <v>1050</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2009,7 +2012,7 @@
         <v>13</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2018,13 +2021,13 @@
         <v>1050</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2092,13 +2095,13 @@
         <v>10942</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H28" s="7">
         <v>37</v>
@@ -2107,13 +2110,13 @@
         <v>44608</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M28" s="7">
         <v>48</v>
@@ -2122,13 +2125,13 @@
         <v>55550</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2143,13 +2146,13 @@
         <v>3705</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -2158,13 +2161,13 @@
         <v>12622</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M29" s="7">
         <v>16</v>
@@ -2173,13 +2176,13 @@
         <v>16327</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2194,13 +2197,13 @@
         <v>1050</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -2209,13 +2212,13 @@
         <v>1901</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -2224,13 +2227,13 @@
         <v>2951</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2286,7 +2289,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C07-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7BB8C8B-9EAD-4466-8919-6E23132F525C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C44338AB-0C4F-45E0-BD66-D9871FBA16F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3D295510-991E-4F78-935A-AD54179E7FCA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2B72AB43-5051-44C9-8D69-1CCBD189E5C8}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="104">
-  <si>
-    <t>Población según el tiempo de diagnóstico del estreñimiento crónico en 2015 (Tasa respuesta: 1,02%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="103">
+  <si>
+    <t>Población según el tiempo de diagnóstico del estreñimiento crónico en 2016 (Tasa respuesta: 1,02%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -125,40 +125,37 @@
     <t>43,4%</t>
   </si>
   <si>
-    <t>83,35%</t>
+    <t>83,87%</t>
   </si>
   <si>
     <t>52,39%</t>
   </si>
   <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
   </si>
   <si>
     <t>36,99%</t>
   </si>
   <si>
-    <t>79,55%</t>
-  </si>
-  <si>
     <t>31,12%</t>
   </si>
   <si>
-    <t>67,13%</t>
+    <t>81,42%</t>
   </si>
   <si>
     <t>19,61%</t>
   </si>
   <si>
-    <t>81,9%</t>
+    <t>79,7%</t>
   </si>
   <si>
     <t>16,5%</t>
   </si>
   <si>
-    <t>67,78%</t>
+    <t>67,46%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -167,31 +164,31 @@
     <t>81,81%</t>
   </si>
   <si>
-    <t>48,64%</t>
+    <t>49,16%</t>
   </si>
   <si>
     <t>75,59%</t>
   </si>
   <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
   </si>
   <si>
     <t>18,19%</t>
   </si>
   <si>
-    <t>51,36%</t>
+    <t>50,84%</t>
   </si>
   <si>
     <t>24,41%</t>
   </si>
   <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -206,61 +203,61 @@
     <t>72,75%</t>
   </si>
   <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
   </si>
   <si>
     <t>83,85%</t>
   </si>
   <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
   </si>
   <si>
     <t>80,68%</t>
   </si>
   <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
   </si>
   <si>
     <t>19,58%</t>
   </si>
   <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
   </si>
   <si>
     <t>16,15%</t>
   </si>
   <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
   </si>
   <si>
     <t>17,13%</t>
   </si>
   <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
   </si>
   <si>
     <t>7,67%</t>
   </si>
   <si>
-    <t>37,99%</t>
+    <t>34,89%</t>
   </si>
   <si>
     <t>6,36%</t>
@@ -269,82 +266,82 @@
     <t>2,19%</t>
   </si>
   <si>
-    <t>10,6%</t>
+    <t>10,88%</t>
   </si>
   <si>
     <t>69,71%</t>
   </si>
   <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
   </si>
   <si>
     <t>75,44%</t>
   </si>
   <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
   </si>
   <si>
     <t>74,24%</t>
   </si>
   <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
   </si>
   <si>
     <t>23,6%</t>
   </si>
   <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
   </si>
   <si>
     <t>21,35%</t>
   </si>
   <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
   </si>
   <si>
     <t>21,82%</t>
   </si>
   <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
   </si>
   <si>
     <t>6,69%</t>
   </si>
   <si>
-    <t>33,27%</t>
+    <t>34,36%</t>
   </si>
   <si>
     <t>3,21%</t>
   </si>
   <si>
-    <t>11,28%</t>
+    <t>10,12%</t>
   </si>
   <si>
     <t>3,94%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -759,7 +756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC91001B-1C29-429E-9BA4-CB7B8E380B41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F458C6-6140-49C4-8666-544AB80DA1CA}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1549,7 +1546,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -1558,13 +1555,13 @@
         <v>1924</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1594,13 +1591,13 @@
         <v>1020</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -1609,13 +1606,13 @@
         <v>1020</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1671,7 +1668,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1698,10 +1695,10 @@
         <v>10196</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>16</v>
@@ -1713,13 +1710,13 @@
         <v>10195</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1749,13 +1746,13 @@
         <v>2267</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="M21" s="7">
         <v>3</v>
@@ -1764,13 +1761,13 @@
         <v>3292</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1806,7 +1803,7 @@
         <v>13</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -1821,7 +1818,7 @@
         <v>13</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,7 +1874,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -1889,13 +1886,13 @@
         <v>9960</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="H24" s="7">
         <v>24</v>
@@ -1904,13 +1901,13 @@
         <v>28726</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M24" s="7">
         <v>34</v>
@@ -1919,13 +1916,13 @@
         <v>38687</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,13 +1937,13 @@
         <v>2680</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -1955,13 +1952,13 @@
         <v>5533</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -1970,13 +1967,13 @@
         <v>8213</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -1991,13 +1988,13 @@
         <v>1050</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2012,7 +2009,7 @@
         <v>13</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2021,13 +2018,13 @@
         <v>1050</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2095,13 +2092,13 @@
         <v>10942</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H28" s="7">
         <v>37</v>
@@ -2110,13 +2107,13 @@
         <v>44608</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M28" s="7">
         <v>48</v>
@@ -2125,13 +2122,13 @@
         <v>55550</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2146,13 +2143,13 @@
         <v>3705</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -2161,13 +2158,13 @@
         <v>12622</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M29" s="7">
         <v>16</v>
@@ -2176,13 +2173,13 @@
         <v>16327</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2197,13 +2194,13 @@
         <v>1050</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -2212,13 +2209,13 @@
         <v>1901</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -2227,13 +2224,13 @@
         <v>2951</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2289,7 +2286,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
